--- a/data/trans_dic/P1414-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1414-Edad-trans_dic.xlsx
@@ -704,17 +704,17 @@
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.01456221206749873</v>
+        <v>0.01213073391875306</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03420054165128938</v>
+        <v>0.03388900566679612</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.005886347196784571</v>
+        <v>0.004709594906734254</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01734608376044152</v>
+        <v>0.01356651260299147</v>
       </c>
     </row>
     <row r="7">
@@ -765,28 +765,28 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.001613914735388814</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002640866186667075</v>
+        <v>0.001677344253077618</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0</v>
+        <v>0.001635255972732684</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0007991208489370215</v>
+        <v>0.0008040424989403199</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.001751542663235668</v>
+        <v>0.001773777227809863</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0008943169026648796</v>
+        <v>0.0009043979444597007</v>
       </c>
     </row>
     <row r="9">
@@ -798,28 +798,28 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.01364290291531453</v>
+        <v>0.01498385037440645</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01300961784407642</v>
+        <v>0.0161713415154149</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02107008510916084</v>
+        <v>0.01840954787034697</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01412088021052678</v>
+        <v>0.01383584805040009</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01272896288528234</v>
+        <v>0.01256249026125231</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.009555921796126269</v>
+        <v>0.008998086066278247</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01118808104302767</v>
+        <v>0.01109245592334494</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.009499139570455648</v>
+        <v>0.009328448007219851</v>
       </c>
     </row>
     <row r="10">
@@ -858,7 +858,7 @@
         <v>0.005983678496877289</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.009488475527208481</v>
+        <v>0.009488475527208483</v>
       </c>
     </row>
     <row r="11">
@@ -872,22 +872,22 @@
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="inlineStr"/>
       <c r="F11" s="5" t="n">
-        <v>0.01244585078283372</v>
+        <v>0.01249816230496363</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.005340281365438257</v>
+        <v>0.005535258548610813</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0114431772297296</v>
+        <v>0.01145719167699312</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006466968695930871</v>
+        <v>0.005896472962862294</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002854923187143337</v>
+        <v>0.00277964155922429</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005425045655964785</v>
+        <v>0.005683038837302663</v>
       </c>
     </row>
     <row r="12">
@@ -901,22 +901,22 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.03410837158596184</v>
+        <v>0.03592619545588939</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02305516812415467</v>
+        <v>0.02299704297898433</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03022088977546036</v>
+        <v>0.02961887381932447</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0178088059978542</v>
+        <v>0.01740434907538605</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0124110054610054</v>
+        <v>0.01158863358614985</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01509299545261592</v>
+        <v>0.01511863488062595</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         <v>0.05720917778362933</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.03983436997973447</v>
+        <v>0.03983436997973448</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.02173364253614472</v>
@@ -969,28 +969,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.001687692621540878</v>
+        <v>0.00152510515748669</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001647310099377374</v>
+        <v>0.001667082368479909</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02576591016342879</v>
+        <v>0.02628580486262659</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04020335872449237</v>
+        <v>0.04109134955061702</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0305837976044672</v>
+        <v>0.03034258378630139</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01355090172886139</v>
+        <v>0.01460937778614031</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02304020402602448</v>
+        <v>0.02322395602343882</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01791855396036051</v>
+        <v>0.01782522767281581</v>
       </c>
     </row>
     <row r="15">
@@ -1001,31 +1001,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01015948767749759</v>
+        <v>0.01152639243502633</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01676370851057618</v>
+        <v>0.01385034602318849</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01975392154083501</v>
+        <v>0.02149260811106129</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05952368670371433</v>
+        <v>0.06038841299528941</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07874934889267206</v>
+        <v>0.08107882750694896</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05227441995497816</v>
+        <v>0.05273261845510206</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03222177202330479</v>
+        <v>0.03163517076852935</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04457232532481089</v>
+        <v>0.04279832858373195</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0317019181720238</v>
+        <v>0.03194891709036279</v>
       </c>
     </row>
     <row r="16">
@@ -1046,7 +1046,7 @@
         <v>0.008952756630001526</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.007186995358724502</v>
+        <v>0.007186995358724504</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.06403904825671773</v>
@@ -1078,28 +1078,28 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002222283377184234</v>
+        <v>0.002511875136280163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002664160563605624</v>
+        <v>0.002660624188643987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04328460563602257</v>
+        <v>0.04306744900574683</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06425214758908053</v>
+        <v>0.06590886947474482</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06849932977365171</v>
+        <v>0.06643522792333061</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02329889948890585</v>
+        <v>0.0240742700764729</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03611242227904633</v>
+        <v>0.03597890306227565</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0363018475826682</v>
+        <v>0.03630570684322802</v>
       </c>
     </row>
     <row r="18">
@@ -1110,31 +1110,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0230904837907966</v>
+        <v>0.01715276353452893</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02217957255087214</v>
+        <v>0.02140339166662638</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0149220442825592</v>
+        <v>0.01675225761952939</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09004163899250196</v>
+        <v>0.0893316556545035</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1172984701809262</v>
+        <v>0.1195101839893169</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1033682889920498</v>
+        <v>0.1028503717332325</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.05055443406776477</v>
+        <v>0.04955590240921177</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06354170951025601</v>
+        <v>0.06592005951692061</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05501432744453124</v>
+        <v>0.05509565247147521</v>
       </c>
     </row>
     <row r="19">
@@ -1190,25 +1190,25 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.002646715561698077</v>
+        <v>0.002774721698708306</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01662484786913449</v>
+        <v>0.01695021137526156</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.03569894699842719</v>
+        <v>0.03579555461007522</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07136535768524976</v>
+        <v>0.07105982451292284</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01073529295244791</v>
+        <v>0.01073167217018797</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02128005396154355</v>
+        <v>0.02066571182150906</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03887633626852931</v>
+        <v>0.04004376205495575</v>
       </c>
     </row>
     <row r="21">
@@ -1219,31 +1219,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02496851785023873</v>
+        <v>0.02454953834775627</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0268525888039355</v>
+        <v>0.03105025555717167</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01771306100997682</v>
+        <v>0.01786714378740992</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05152616975030086</v>
+        <v>0.05455253410157868</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08358806661048736</v>
+        <v>0.08346147574306136</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1106181099487372</v>
+        <v>0.1118846662169674</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03389821140393235</v>
+        <v>0.03207731060946537</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04867741412076233</v>
+        <v>0.04818710648759299</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06094854082391768</v>
+        <v>0.06300392852193945</v>
       </c>
     </row>
     <row r="22">
@@ -1300,22 +1300,22 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.008717021091783893</v>
+        <v>0.01128912297389213</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0127853752172398</v>
+        <v>0.01296048173780842</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03246250325254774</v>
+        <v>0.03083875456712457</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.006910807816157817</v>
+        <v>0.006965353549834622</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.008061973032166918</v>
+        <v>0.007837017846518333</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01933814268911345</v>
+        <v>0.01961685904586165</v>
       </c>
     </row>
     <row r="24">
@@ -1326,29 +1326,29 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02159868967594543</v>
+        <v>0.01712551913290191</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.00846876425593421</v>
+        <v>0.007601497269727908</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04088119424269027</v>
+        <v>0.04369958287193885</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05116897024686341</v>
+        <v>0.05101463019247624</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0603412636432842</v>
+        <v>0.06088052890580545</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02784964880024651</v>
+        <v>0.02760310419781957</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03149264425573869</v>
+        <v>0.03130897263056828</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03715550162144694</v>
+        <v>0.03702964250181828</v>
       </c>
     </row>
     <row r="25">
@@ -1369,7 +1369,7 @@
         <v>0.004138586461645745</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.004188988346218044</v>
+        <v>0.004188988346218045</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.02610782992261705</v>
@@ -1398,31 +1398,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.0009179831695049705</v>
+        <v>0.0009172648221282471</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.00237301787293677</v>
+        <v>0.002402462093083077</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0024497651310508</v>
+        <v>0.002240306028318301</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02086508708477759</v>
+        <v>0.02064985319876697</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02934984007914337</v>
+        <v>0.02944684492822989</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.03690687715610168</v>
+        <v>0.03702557464572784</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01156168232511557</v>
+        <v>0.01146217686593146</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01671081536291657</v>
+        <v>0.01701826085527816</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.02065809261121276</v>
+        <v>0.02076133452034648</v>
       </c>
     </row>
     <row r="27">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.00433333070919853</v>
+        <v>0.004487461141664699</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.007190930876288585</v>
+        <v>0.00731319194410314</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.007208260936682797</v>
+        <v>0.006987857390882377</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03166870819318109</v>
+        <v>0.03211161865515254</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.04154414927234137</v>
+        <v>0.04231941153435369</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.04710526989040408</v>
+        <v>0.04729783000905444</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01755341501983893</v>
+        <v>0.01742135899156947</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0236901268061255</v>
+        <v>0.02379546228855667</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.02668600576319236</v>
+        <v>0.02633293895339732</v>
       </c>
     </row>
     <row r="28">
@@ -1718,17 +1718,17 @@
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>5763</v>
+        <v>4801</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12398</v>
+        <v>12285</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>4799</v>
+        <v>3839</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>13362</v>
+        <v>10450</v>
       </c>
     </row>
     <row r="8">
@@ -1814,28 +1814,28 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>953</v>
+        <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1612</v>
+        <v>1024</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0</v>
+        <v>922</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2021</v>
+        <v>2047</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>874</v>
+        <v>884</v>
       </c>
     </row>
     <row r="11">
@@ -1847,28 +1847,28 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>8056</v>
+        <v>8848</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6204</v>
+        <v>7712</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12858</v>
+        <v>11235</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7958</v>
+        <v>7797</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6370</v>
+        <v>6287</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12397</v>
+        <v>11674</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12911</v>
+        <v>12801</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>9284</v>
+        <v>9117</v>
       </c>
     </row>
     <row r="12">
@@ -1956,22 +1956,22 @@
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="inlineStr"/>
       <c r="F14" s="6" t="n">
-        <v>8831</v>
+        <v>8868</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3532</v>
+        <v>3661</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7095</v>
+        <v>7103</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8998</v>
+        <v>8205</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3798</v>
+        <v>3698</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6724</v>
+        <v>7044</v>
       </c>
     </row>
     <row r="15">
@@ -1985,22 +1985,22 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>24202</v>
+        <v>25492</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15248</v>
+        <v>15210</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>18736</v>
+        <v>18363</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24780</v>
+        <v>24217</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>16513</v>
+        <v>15418</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>18707</v>
+        <v>18738</v>
       </c>
     </row>
     <row r="16">
@@ -2088,28 +2088,28 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1090</v>
+        <v>985</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1152</v>
+        <v>1166</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>15827</v>
+        <v>16146</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>26095</v>
+        <v>26671</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>22375</v>
+        <v>22198</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16652</v>
+        <v>17953</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>29840</v>
+        <v>30078</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>25643</v>
+        <v>25510</v>
       </c>
     </row>
     <row r="19">
@@ -2120,31 +2120,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6244</v>
+        <v>7084</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10830</v>
+        <v>8948</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>13818</v>
+        <v>15035</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>36563</v>
+        <v>37094</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>51114</v>
+        <v>52626</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>38244</v>
+        <v>38579</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>39597</v>
+        <v>38876</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>57727</v>
+        <v>55429</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>45369</v>
+        <v>45723</v>
       </c>
     </row>
     <row r="20">
@@ -2232,28 +2232,28 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1062</v>
+        <v>1200</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>19383</v>
+        <v>19286</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>31924</v>
+        <v>32747</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>41287</v>
+        <v>40043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>20438</v>
+        <v>21119</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>35201</v>
+        <v>35071</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>43944</v>
+        <v>43949</v>
       </c>
     </row>
     <row r="23">
@@ -2264,31 +2264,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>9916</v>
+        <v>7366</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10600</v>
+        <v>10229</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>9069</v>
+        <v>10182</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>40321</v>
+        <v>40003</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>58280</v>
+        <v>59379</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>62304</v>
+        <v>61992</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>44348</v>
+        <v>43472</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>61938</v>
+        <v>64257</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>66596</v>
+        <v>66694</v>
       </c>
     </row>
     <row r="24">
@@ -2379,25 +2379,25 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1071</v>
+        <v>1123</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5869</v>
+        <v>5984</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>13486</v>
+        <v>13522</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>31116</v>
+        <v>30983</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>7116</v>
+        <v>7113</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>15153</v>
+        <v>14716</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>32688</v>
+        <v>33670</v>
       </c>
     </row>
     <row r="27">
@@ -2408,31 +2408,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>7735</v>
+        <v>7605</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>8978</v>
+        <v>10381</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7170</v>
+        <v>7233</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>18190</v>
+        <v>19259</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>31576</v>
+        <v>31529</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>48231</v>
+        <v>48783</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>22468</v>
+        <v>21261</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>34663</v>
+        <v>34314</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>51247</v>
+        <v>52975</v>
       </c>
     </row>
     <row r="28">
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3391</v>
+        <v>4391</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>5116</v>
+        <v>5186</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>15030</v>
+        <v>14278</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>4415</v>
+        <v>4450</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>5298</v>
+        <v>5150</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>14929</v>
+        <v>15144</v>
       </c>
     </row>
     <row r="31">
@@ -2550,29 +2550,29 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5396</v>
+        <v>4279</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>2617</v>
+        <v>2349</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>15902</v>
+        <v>16998</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>20476</v>
+        <v>20414</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>27938</v>
+        <v>28188</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>17791</v>
+        <v>17634</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>20696</v>
+        <v>20575</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>28684</v>
+        <v>28587</v>
       </c>
     </row>
     <row r="32">
@@ -2657,31 +2657,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>8055</v>
+        <v>8155</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>8636</v>
+        <v>7898</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>74157</v>
+        <v>73392</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>104032</v>
+        <v>104376</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>137156</v>
+        <v>137597</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>80711</v>
+        <v>80016</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>115955</v>
+        <v>118088</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>149596</v>
+        <v>150343</v>
       </c>
     </row>
     <row r="35">
@@ -2692,31 +2692,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>14849</v>
+        <v>15378</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>24409</v>
+        <v>24824</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>25411</v>
+        <v>24634</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>112555</v>
+        <v>114129</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>147255</v>
+        <v>150003</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>175055</v>
+        <v>175771</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>122539</v>
+        <v>121617</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>164383</v>
+        <v>165114</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>193247</v>
+        <v>190690</v>
       </c>
     </row>
     <row r="36">
